--- a/outputs/grs_formA.xlsx
+++ b/outputs/grs_formA.xlsx
@@ -37,7 +37,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9C5E6"/>
+        <bgColor rgb="00A9C5E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2FFFF"/>
+        <bgColor rgb="00B2FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCFF"/>
+        <bgColor rgb="00FFCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1E0C6"/>
+        <bgColor rgb="00F1E0C6"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,15 +113,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,44 +504,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="33" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>UVR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Quem preencheu</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Responsável</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Data de Envio</t>
         </is>
@@ -505,52 +558,62 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
           <t>Altônia</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Anahy</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
@@ -559,79 +622,94 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
           <t>Assis Chateaubriand</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Boa Vista da Aparecida</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Braganey</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
@@ -640,700 +718,830 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
           <t>Brasilândia do Sul</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Cafelândia</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Campo Bonito</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Capitão Leônidas Marques</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Catanduvas</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>Céu Azul</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Corbélia</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>Diamante D'Oeste</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>Diamante do Sul</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>Entre Rios do Oeste</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>Formosa do Oeste</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>23/07/2025</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>Foz do Iguaçu</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
@@ -1342,25 +1550,30 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
           <t>Francisco Alves</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
@@ -1369,268 +1582,318 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
           <t>Guaíra</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>Guaraniaçu</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>Ibema</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>Iguatu</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>Iracema do Oeste</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>Itaipulândia</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>Jesuítas</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>Lindoeste</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>Marechal Cândido Rondon</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
@@ -1639,79 +1902,94 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
           <t>Maripá</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>Matelândia</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>Medianeira</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
@@ -1720,52 +1998,62 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
           <t>Mercedes</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>Missal</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
@@ -1774,52 +2062,62 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
           <t>Mundo Novo</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>Nova Aurora</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
@@ -1828,25 +2126,30 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
           <t>Nova Santa Rosa</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
@@ -1855,25 +2158,30 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
           <t>Ouro Verde do Oeste</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
@@ -1882,52 +2190,62 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
           <t>Palotina</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>Pato Bragado</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
@@ -1936,268 +2254,318 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
           <t>Quatro Pontes</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>Ramilândia</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>Santa Helena</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>Santa Lúcia</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>Santa Tereza do Oeste</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>Santa Terezinha de Itaipu</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>São José das Palmeiras</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>São Miguel do Iguaçu</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>São Pedro do Iguaçu</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>Serranópolis do Iguaçu</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>Larissa Bussler</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
@@ -2206,25 +2574,30 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
           <t>Terra Roxa</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
@@ -2233,133 +2606,158 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
           <t>Toledo</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>Gabriel Sousa Prates</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>16/07/2025</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>Três Barras do Paraná</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>Bianca Oliveira Miranda</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>11/06/2025</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>Tupãssi</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>Ubiratã</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>Valquíria Oliveira de Castro</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="7" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>Vera Cruz do Oeste</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>Luana Gabriela Lenhard</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>10/07/2025</t>
         </is>
@@ -2367,7 +2765,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado,Não Enviado"</formula1>
     </dataValidation>
   </dataValidations>
